--- a/delivery_count_attachments/BMS/202504_v1/data_delivery_BMS_202504.xlsx
+++ b/delivery_count_attachments/BMS/202504_v1/data_delivery_BMS_202504.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Electronic Medical Records (EMR) - Common Data Model (CDM)</t>
+          <t>Open Claims - Common Data Model (CDM)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70,622</t>
+          <t>60,672</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Model Outputs: Standard (Regimen-based) Line of Therapy</t>
+          <t>Model Outputs: Adjuvant &amp; Neo-Adjuvant Treatment Model</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Non-Small Cell Lung Cancer (NSCLC)</t>
+          <t>Breast Cancer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27,798</t>
+          <t>48,686</t>
         </is>
       </c>
     </row>
@@ -552,17 +552,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Open Claims - Common Data Model (CDM)</t>
+          <t>Electronic Medical Records (EMR) - Common Data Model (CDM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
+          <t>Core Data Product (Base)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Breast Cancer</t>
+          <t>Non-Small Cell Lung Cancer (NSCLC)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14,851</t>
+          <t>70,622</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
+          <t>Core Data Product (Base)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Non-Small Cell Lung Cancer (NSCLC)</t>
+          <t>Breast Cancer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27,798</t>
+          <t>61,464</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Model Outputs: Adjuvant &amp; Neo-Adjuvant Treatment Model</t>
+          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>48,686</t>
+          <t>14,851</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Model Outputs: Standard (Regimen-based) Line of Therapy</t>
+          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Breast Cancer</t>
+          <t>Non-Small Cell Lung Cancer (NSCLC)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14,851</t>
+          <t>27,798</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Core Data Product (Base)</t>
+          <t>Model Outputs: Standard (Regimen-based) Line of Therapy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>61,464</t>
+          <t>14,851</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Core Data Product (Base)</t>
+          <t>Model Outputs: Adjuvant &amp; Neo-Adjuvant Treatment Model</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>60,672</t>
+          <t>8,614</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Model Outputs: Adjuvant &amp; Neo-Adjuvant Treatment Model</t>
+          <t>Model Outputs: Standard (Regimen-based) Line of Therapy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8,614</t>
+          <t>27,798</t>
         </is>
       </c>
     </row>
